--- a/results/types_per_year.xlsx
+++ b/results/types_per_year.xlsx
@@ -466,7 +466,7 @@
         <v>1942</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>1943</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>1944</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>1945</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -510,7 +510,7 @@
         <v>1946</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>1947</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1954</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>1955</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>1956</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>1958</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>1959</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>1960</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>1961</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>1962</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>1963</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -631,7 +631,7 @@
         <v>1964</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>1965</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>1966</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>1967</v>
       </c>
       <c r="B21" t="n">
+        <v>22</v>
+      </c>
+      <c r="C21" t="n">
         <v>4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -675,7 +675,7 @@
         <v>1968</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>1969</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>1970</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>1971</v>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>1972</v>
       </c>
       <c r="B26" t="n">
+        <v>23</v>
+      </c>
+      <c r="C26" t="n">
         <v>4</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -730,7 +730,7 @@
         <v>1973</v>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>1974</v>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -752,7 +752,7 @@
         <v>1975</v>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>1976</v>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>1977</v>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -785,7 +785,7 @@
         <v>1978</v>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -796,10 +796,10 @@
         <v>1979</v>
       </c>
       <c r="B33" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -807,7 +807,7 @@
         <v>1980</v>
       </c>
       <c r="B34" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>1981</v>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -829,7 +829,7 @@
         <v>1982</v>
       </c>
       <c r="B36" t="n">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>1983</v>
       </c>
       <c r="B37" t="n">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>1984</v>
       </c>
       <c r="B38" t="n">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>1985</v>
       </c>
       <c r="B39" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -873,7 +873,7 @@
         <v>1986</v>
       </c>
       <c r="B40" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -884,7 +884,7 @@
         <v>1987</v>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>1988</v>
       </c>
       <c r="B42" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -906,7 +906,7 @@
         <v>1989</v>
       </c>
       <c r="B43" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -917,10 +917,10 @@
         <v>1990</v>
       </c>
       <c r="B44" t="n">
+        <v>87</v>
+      </c>
+      <c r="C44" t="n">
         <v>19</v>
-      </c>
-      <c r="C44" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -928,7 +928,7 @@
         <v>1991</v>
       </c>
       <c r="B45" t="n">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -939,10 +939,10 @@
         <v>1992</v>
       </c>
       <c r="B46" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>1993</v>
       </c>
       <c r="B47" t="n">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>1994</v>
       </c>
       <c r="B48" t="n">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>1995</v>
       </c>
       <c r="B49" t="n">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -983,7 +983,7 @@
         <v>1996</v>
       </c>
       <c r="B50" t="n">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C50" t="n">
         <v>3</v>
@@ -994,10 +994,10 @@
         <v>1997</v>
       </c>
       <c r="B51" t="n">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>1998</v>
       </c>
       <c r="B52" t="n">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>1999</v>
       </c>
       <c r="B53" t="n">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>2000</v>
       </c>
       <c r="B54" t="n">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>2001</v>
       </c>
       <c r="B55" t="n">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>2002</v>
       </c>
       <c r="B56" t="n">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>2003</v>
       </c>
       <c r="B57" t="n">
-        <v>51</v>
+        <v>264</v>
       </c>
       <c r="C57" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>2004</v>
       </c>
       <c r="B58" t="n">
+        <v>321</v>
+      </c>
+      <c r="C58" t="n">
         <v>55</v>
-      </c>
-      <c r="C58" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>2005</v>
       </c>
       <c r="B59" t="n">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="C59" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>2006</v>
       </c>
       <c r="B60" t="n">
+        <v>445</v>
+      </c>
+      <c r="C60" t="n">
         <v>82</v>
-      </c>
-      <c r="C60" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>2007</v>
       </c>
       <c r="B61" t="n">
-        <v>74</v>
+        <v>421</v>
       </c>
       <c r="C61" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>2008</v>
       </c>
       <c r="B62" t="n">
-        <v>113</v>
+        <v>588</v>
       </c>
       <c r="C62" t="n">
-        <v>22</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>2009</v>
       </c>
       <c r="B63" t="n">
-        <v>118</v>
+        <v>610</v>
       </c>
       <c r="C63" t="n">
-        <v>34</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>2010</v>
       </c>
       <c r="B64" t="n">
-        <v>153</v>
+        <v>822</v>
       </c>
       <c r="C64" t="n">
-        <v>39</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>2011</v>
       </c>
       <c r="B65" t="n">
-        <v>145</v>
+        <v>747</v>
       </c>
       <c r="C65" t="n">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>2012</v>
       </c>
       <c r="B66" t="n">
-        <v>173</v>
+        <v>878</v>
       </c>
       <c r="C66" t="n">
-        <v>63</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>2013</v>
       </c>
       <c r="B67" t="n">
-        <v>225</v>
+        <v>1112</v>
       </c>
       <c r="C67" t="n">
-        <v>61</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>2014</v>
       </c>
       <c r="B68" t="n">
-        <v>264</v>
+        <v>1279</v>
       </c>
       <c r="C68" t="n">
-        <v>88</v>
+        <v>450</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>2015</v>
       </c>
       <c r="B69" t="n">
-        <v>396</v>
+        <v>1918</v>
       </c>
       <c r="C69" t="n">
-        <v>159</v>
+        <v>927</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>2016</v>
       </c>
       <c r="B70" t="n">
-        <v>658</v>
+        <v>2837</v>
       </c>
       <c r="C70" t="n">
-        <v>243</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>2017</v>
       </c>
       <c r="B71" t="n">
-        <v>765</v>
+        <v>3278</v>
       </c>
       <c r="C71" t="n">
-        <v>265</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>2018</v>
       </c>
       <c r="B72" t="n">
-        <v>767</v>
+        <v>3409</v>
       </c>
       <c r="C72" t="n">
-        <v>379</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>2019</v>
       </c>
       <c r="B73" t="n">
-        <v>633</v>
+        <v>2752</v>
       </c>
       <c r="C73" t="n">
-        <v>397</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>2020</v>
       </c>
       <c r="B74" t="n">
-        <v>517</v>
+        <v>2158</v>
       </c>
       <c r="C74" t="n">
-        <v>436</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>2021</v>
       </c>
       <c r="B75" t="n">
-        <v>277</v>
+        <v>914</v>
       </c>
       <c r="C75" t="n">
-        <v>315</v>
+        <v>1557</v>
       </c>
     </row>
   </sheetData>
